--- a/耗材.xlsx
+++ b/耗材.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="14805" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>Touch 耗材壽命管控表</t>
   </si>
@@ -57,73 +57,50 @@
     <t>950951</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>B2B</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 探針</t>
     </r>
-    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018/11/22 16:07:47</t>
   </si>
   <si>
     <t>2018/11/22 15:40:43</t>
-  </si>
-  <si>
-    <t>上料機A抓手吸嘴</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>上料機B抓手吸嘴</t>
-  </si>
-  <si>
-    <t>上料區搬运吸嘴</t>
-  </si>
-  <si>
-    <t>2018/11/22 15:40:07</t>
-  </si>
-  <si>
-    <t>上料區空TRAY搬运吸嘴</t>
-  </si>
-  <si>
-    <t>下料區搬运吸嘴</t>
-  </si>
-  <si>
-    <t>下料區空TRAY搬运吸嘴</t>
-  </si>
-  <si>
-    <t>2018/11/23 11:00:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文楷体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -131,23 +108,180 @@
       <sz val="20"/>
       <color rgb="FF0000FF"/>
       <name val="华文楷体"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="华文楷体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +300,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -177,47 +497,334 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -228,9 +835,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -242,7 +847,7 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF0000FF"/>
+      <color rgb="000000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -532,499 +1137,330 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1" style="2"/>
-    <col min="2" max="2" width="18" customWidth="1" style="2"/>
-    <col min="3" max="3" width="13.5" customWidth="1" style="2"/>
-    <col min="4" max="5" width="12.25" customWidth="1" style="2"/>
-    <col min="6" max="6" width="13.5" customWidth="1" style="2"/>
-    <col min="7" max="8" bestFit="1" width="18.375" customWidth="1" style="2"/>
-    <col min="9" max="9" width="12.25" customWidth="1" style="2"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="25.5" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>20000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>15000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>43415.6083333333</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="16.5">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>50000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>45000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>43415.6083333333</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>20000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>15000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>50000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>45000</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>20000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>15000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>43415.6083333333</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16.5">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>50000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>45000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>43415.6083333333</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>20000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>15000</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>43415.6083333333</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="16.5">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>50000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>45000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>8</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>43415.6083333333</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>43424.6083333333</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F11" s="7">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5">
-        <v>43415.6083333333</v>
-      </c>
-      <c r="H11" s="5">
-        <v>43424.6083333333</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="A12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F12" s="7">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>43415.6083333333</v>
-      </c>
-      <c r="H12" s="5">
-        <v>43424.6083333333</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E13" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>43424.6083333333</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>43424.6083333333</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>43424.6083333333</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>